--- a/data/trans_camb/P36B13_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P36B13_R-Edad-trans_camb.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-19.99677280506866</v>
+        <v>-20.39725620414147</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-15.13886147483613</v>
+        <v>-14.56770014450067</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-16.04136512137852</v>
+        <v>-16.34251513073476</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-6.291436899642671</v>
+        <v>-6.120850858224623</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-3.064723222646949</v>
+        <v>-3.394827903936333</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-6.866518709384733</v>
+        <v>-6.968971147882705</v>
       </c>
     </row>
     <row r="7">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.6835184317598827</v>
+        <v>-0.6953197942578816</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.6706939923746656</v>
+        <v>-0.656206877829236</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.6225343902083554</v>
+        <v>-0.6388481376331876</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.2603590725034969</v>
+        <v>-0.2417011643868265</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.1686468257561748</v>
+        <v>-0.1745110285015732</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.3009409761060819</v>
+        <v>-0.3108669936681704</v>
       </c>
     </row>
     <row r="10">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-13.68002089384654</v>
+        <v>-12.95043222511234</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-11.8806707447679</v>
+        <v>-11.38399963626698</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-11.62579035782298</v>
+        <v>-11.4492583839918</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-2.332164484542008</v>
+        <v>-1.592853930328935</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-5.60677594954338</v>
+        <v>-5.148953358426421</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-5.40969774326091</v>
+        <v>-4.917032467431583</v>
       </c>
     </row>
     <row r="13">
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.5506556186570963</v>
+        <v>-0.5350324541146655</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.8421648801958334</v>
+        <v>-0.8339368901880867</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.6391198378431716</v>
+        <v>-0.6186807920706808</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.1116223795090113</v>
+        <v>-0.07951058051498006</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.5313165922623734</v>
+        <v>-0.5047115820528315</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.3343365882348551</v>
+        <v>-0.3147795207308436</v>
       </c>
     </row>
     <row r="16">
@@ -782,7 +782,7 @@
         <v>-2.698969273905358</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-3.533987940329522</v>
+        <v>-3.533987940329521</v>
       </c>
     </row>
     <row r="17">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-7.789093046463573</v>
+        <v>-7.655006104850439</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-5.327409544736331</v>
+        <v>-5.263795118092476</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-5.800827347376847</v>
+        <v>-5.647769653022793</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-1.045953520338171</v>
+        <v>-1.231929410950831</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.06008258768006898</v>
+        <v>-0.01480820578935371</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-1.466489795796302</v>
+        <v>-1.308364721843172</v>
       </c>
     </row>
     <row r="19">
@@ -833,7 +833,7 @@
         <v>-0.3352645084402787</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.3552675299666982</v>
+        <v>-0.355267529966698</v>
       </c>
     </row>
     <row r="20">
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.5652136891347638</v>
+        <v>-0.5572003154642932</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.5608184074944704</v>
+        <v>-0.5456519208986951</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.5185721047956575</v>
+        <v>-0.5077823860588946</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.08928611451818187</v>
+        <v>-0.1033530122272724</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.01265723983890723</v>
+        <v>0.02713610205122265</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.1594885485862385</v>
+        <v>-0.1413471015112975</v>
       </c>
     </row>
     <row r="22">
@@ -882,13 +882,13 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>-0.8023454544125272</v>
+        <v>-0.8023454544125258</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>-1.404179569613732</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-1.141622550506423</v>
+        <v>-1.141622550506421</v>
       </c>
     </row>
     <row r="23">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.631036149717192</v>
+        <v>-3.526863843183455</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.549937715133685</v>
+        <v>-3.474097638678147</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-3.068194441783325</v>
+        <v>-2.80701941233685</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.212699587795733</v>
+        <v>2.247989221149128</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.6044520168186703</v>
+        <v>0.7900165660940981</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6468689610787166</v>
+        <v>0.6177062222175486</v>
       </c>
     </row>
     <row r="25">
@@ -933,13 +933,13 @@
         </is>
       </c>
       <c r="C25" s="6" t="n">
-        <v>-0.1026170732465353</v>
+        <v>-0.1026170732465351</v>
       </c>
       <c r="D25" s="6" t="n">
         <v>-0.2731781125059992</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.176214014880876</v>
+        <v>-0.1762140148808758</v>
       </c>
     </row>
     <row r="26">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.3972069257307905</v>
+        <v>-0.3876319940673063</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.5400979196156355</v>
+        <v>-0.5344992753718754</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.3999408216722429</v>
+        <v>-0.3788840952404894</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.3773209104816351</v>
+        <v>0.3972916374259671</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1852940451519304</v>
+        <v>0.2246441623212564</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.1227070021120351</v>
+        <v>0.1195972782176234</v>
       </c>
     </row>
     <row r="28">
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>-0.7270646975793535</v>
+        <v>-0.7270646975793528</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>-2.927135938598486</v>
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-3.760948916688559</v>
+        <v>-3.767482681954407</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-5.395894116745237</v>
+        <v>-5.614189193143729</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-3.605856924554425</v>
+        <v>-3.655573392548689</v>
       </c>
     </row>
     <row r="30">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.929565313144361</v>
+        <v>1.914155010218211</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-0.9652999345352603</v>
+        <v>-1.084345474807939</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-0.2767584861322785</v>
+        <v>-0.2585634172512568</v>
       </c>
     </row>
     <row r="31">
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>-0.1386211790794967</v>
+        <v>-0.1386211790794965</v>
       </c>
       <c r="D31" s="6" t="n">
         <v>-0.6479752148266636</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.3728983709652944</v>
+        <v>-0.3728983709652945</v>
       </c>
     </row>
     <row r="32">
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.5078271384308852</v>
+        <v>-0.5362749937029547</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.823286022838376</v>
+        <v>-0.8388707141365824</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.6079936891342848</v>
+        <v>-0.6123988397018358</v>
       </c>
     </row>
     <row r="33">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.5800136177992854</v>
+        <v>0.5046961914419886</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.271911959076668</v>
+        <v>-0.3311413278029097</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.04982447882332314</v>
+        <v>-0.0501118942164434</v>
       </c>
     </row>
     <row r="34">
@@ -1100,7 +1100,7 @@
         <v>-1.562932530932396</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>-1.000732499083894</v>
+        <v>-1.000732499083893</v>
       </c>
     </row>
     <row r="35">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-2.98008521007922</v>
+        <v>-2.917503270092363</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-3.964437664904518</v>
+        <v>-3.708667366009453</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-2.647604245430241</v>
+        <v>-2.683147324209517</v>
       </c>
     </row>
     <row r="36">
@@ -1128,13 +1128,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>1.857993381981619</v>
+        <v>1.951935646838283</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>0.2906264999933313</v>
+        <v>0.3178834278243218</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>0.4900578891229678</v>
+        <v>0.5580845691001224</v>
       </c>
     </row>
     <row r="37">
@@ -1151,7 +1151,7 @@
         <v>-0.5135592858805105</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>-0.2969469518890985</v>
+        <v>-0.2969469518890984</v>
       </c>
     </row>
     <row r="38">
@@ -1162,13 +1162,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.5574801880995286</v>
+        <v>-0.5676410269972764</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.7932199744341913</v>
+        <v>-0.8006184015327584</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.5859155077870756</v>
+        <v>-0.6147637041474084</v>
       </c>
     </row>
     <row r="39">
@@ -1179,13 +1179,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.7952300687795223</v>
+        <v>0.9464792365379703</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.3368450079989064</v>
+        <v>0.2830622160502244</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.2678257112353619</v>
+        <v>0.2537597635123963</v>
       </c>
     </row>
     <row r="40">
@@ -1203,7 +1203,7 @@
         <v>-1.925214728100608</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>-0.2670624224300339</v>
+        <v>-0.2670624224300345</v>
       </c>
       <c r="E40" s="5" t="n">
         <v>-0.9218470818665843</v>
@@ -1217,13 +1217,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-4.809346621213797</v>
+        <v>-5.044397660330254</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-2.537412282975475</v>
+        <v>-2.63367251227716</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-2.624842228207109</v>
+        <v>-2.623578689200792</v>
       </c>
     </row>
     <row r="42">
@@ -1234,13 +1234,13 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.2418992737052492</v>
+        <v>0.3413306566304476</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>1.548224074749983</v>
+        <v>1.546891539451015</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>0.4696708040390528</v>
+        <v>0.5490229757812761</v>
       </c>
     </row>
     <row r="43">
@@ -1254,7 +1254,7 @@
         <v>-0.5396354114547097</v>
       </c>
       <c r="D43" s="6" t="n">
-        <v>-0.1173330303793105</v>
+        <v>-0.1173330303793109</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>-0.3311070662842947</v>
@@ -1268,13 +1268,13 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.8452247342564931</v>
+        <v>-0.852783668345693</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.6610428574757462</v>
+        <v>-0.6575869779951949</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.6583634155956849</v>
+        <v>-0.6810561084465515</v>
       </c>
     </row>
     <row r="45">
@@ -1285,13 +1285,13 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.2926631216857034</v>
+        <v>0.301079193746647</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>1.675408566759192</v>
+        <v>1.491095195402259</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.3023652181181065</v>
+        <v>0.3626868735902886</v>
       </c>
     </row>
     <row r="46">
@@ -1312,7 +1312,7 @@
         <v>-3.97168202717515</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>-4.456957896129127</v>
+        <v>-4.456957896129128</v>
       </c>
     </row>
     <row r="47">
@@ -1323,13 +1323,13 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-6.513153697122117</v>
+        <v>-6.550765791386285</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-5.076313456110231</v>
+        <v>-5.080998952613384</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-5.429206086880624</v>
+        <v>-5.441378004084004</v>
       </c>
     </row>
     <row r="48">
@@ -1340,13 +1340,13 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-3.365983858837008</v>
+        <v>-3.264024812957699</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-2.809811726353954</v>
+        <v>-2.860886507275472</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-3.481446777203558</v>
+        <v>-3.462642422301272</v>
       </c>
     </row>
     <row r="49">
@@ -1363,7 +1363,7 @@
         <v>-0.5061422343888472</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>-0.4420108162744483</v>
+        <v>-0.4420108162744484</v>
       </c>
     </row>
     <row r="50">
@@ -1374,13 +1374,13 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.488462812668582</v>
+        <v>-0.4995334593519543</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.5988036177719952</v>
+        <v>-0.5952972540790361</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.5112543725221147</v>
+        <v>-0.5140855484491232</v>
       </c>
     </row>
     <row r="51">
@@ -1391,13 +1391,13 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.285462399055082</v>
+        <v>-0.2790389230929441</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.3928746307261158</v>
+        <v>-0.3972778688464612</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.3590144408588149</v>
+        <v>-0.3608604102106658</v>
       </c>
     </row>
     <row r="52">
